--- a/medicine/Médecine vétérinaire/Santé_animale/Santé_animale.xlsx
+++ b/medicine/Médecine vétérinaire/Santé_animale/Santé_animale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_animale</t>
+          <t>Santé_animale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La santé animale concerne l'animal domestique (de compagnie ou de rente) et l'animal sauvage. C'est un enjeu éthique, sanitaire et économique car de nombreuses maladies sont zoonotiques (c'est-à-dire pouvant se transmettre entre animaux humains et non humains).
 La santé animale peut être dégradée par de nombreux facteurs :
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_animale</t>
+          <t>Santé_animale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,11 +533,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gouvernance sanitaire
-En 2012, la santé animale est rapprochée de la santé végétale.
-La nouvelle « gouvernance sanitaire en santé animale et végétale »[1] se met en place en 2012, à la suite des États généraux du sanitaire (début 2010) avec 3 décrets du 1er juillet 2012 (composition et fonctionnement des structures devant émettre les avis pour la politique sanitaire, mais aussi sur la hiérarchisation des maladies animales et des organismes nuisibles aux végétaux (en vue de leur catégorisation).
-Veille, éco-épidémiologie
-En France, des réseaux de vétérinaires et administrations (DSV, DRAAF, DDPP/DDCSPP, DAAF) assurent cette veille. Un réseau dit « SAGIR »[2], autour de l'ONCFS, avec les services vétérinaire assure un suivi de la faune sauvage. Et, un système d'information géographique dit MAPSIGAL (préfigurant GEOSIGAL 2) seront en place dans les services déconcentrés de l'État le 1er juin 2011 pour mieux répondre aux situations de gestion de crise et plan d'urgence[3].
+          <t>Gouvernance sanitaire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, la santé animale est rapprochée de la santé végétale.
+La nouvelle « gouvernance sanitaire en santé animale et végétale » se met en place en 2012, à la suite des États généraux du sanitaire (début 2010) avec 3 décrets du 1er juillet 2012 (composition et fonctionnement des structures devant émettre les avis pour la politique sanitaire, mais aussi sur la hiérarchisation des maladies animales et des organismes nuisibles aux végétaux (en vue de leur catégorisation).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Santé_animale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_animale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Veille, éco-épidémiologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, des réseaux de vétérinaires et administrations (DSV, DRAAF, DDPP/DDCSPP, DAAF) assurent cette veille. Un réseau dit « SAGIR », autour de l'ONCFS, avec les services vétérinaire assure un suivi de la faune sauvage. Et, un système d'information géographique dit MAPSIGAL (préfigurant GEOSIGAL 2) seront en place dans les services déconcentrés de l'État le 1er juin 2011 pour mieux répondre aux situations de gestion de crise et plan d'urgence.
 </t>
         </is>
       </c>
